--- a/esquema.xlsx
+++ b/esquema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grant\Documents\habitica-normalizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEE2E0F-589E-4319-A536-CE0A3BB758E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB2054C-C563-40FF-8387-8CF93E2FBA77}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="76005" yWindow="30" windowWidth="24885" windowHeight="17415" xr2:uid="{F24DD2BE-78A0-4C28-A811-B9C131FAA88B}"/>
+    <workbookView xWindow="76005" yWindow="30" windowWidth="24885" windowHeight="17415" activeTab="1" xr2:uid="{F24DD2BE-78A0-4C28-A811-B9C131FAA88B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hábitos" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Nombre de Hábito</t>
-  </si>
-  <si>
-    <t>Racha</t>
   </si>
   <si>
     <t>Total</t>
@@ -431,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D953D7-E5D7-4525-B385-5A5C927AAB62}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,19 +447,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -472,45 +469,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79B3452-C9E7-45EC-896D-D9450D2D15BE}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
         <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -523,7 +517,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,22 +532,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
